--- a/biology/Écologie/Anna_Sher/Anna_Sher.xlsx
+++ b/biology/Écologie/Anna_Sher/Anna_Sher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anna Amelia Sher est une phytoécologiste américaine qui est professeure à l'université de Denver. Elle travaille sur la conservation et la restauration des zones envahies par Tamarix. Elle est l'auteure de deux manuels, Ecology:Concepts and Applications et Introduction to conservation biology.
 </t>
@@ -511,9 +523,11 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sher était une étudiante de premier cycle à Earlham College, où elle s'est spécialisée en biologie et en art[1],  et a d'abord été initiée aux plantes envahissantes, intérêt qu'elle attribue au professeur de biologie Brent Smith[2]. Elle a déménagé à l'Université du Nouveau-Mexique pour des études supérieures, où elle a travaillé sous la supervision de Diane Marshall. Sa recherche doctorale, intitulée « Seedling ecology of competing riparian trees : native cottonwood (Populus deltoides subsp wislizenii) and invasive salt cedar (Tamarix ramosissima) », portait sur l'écologie des arbres riverains concurrents : le peuplier et le cèdre salé envahissant (Tamarix)[3].  Elle a effectué des travaux sur le terrain au Refuge faunique national de Bosque del Apache au Nouveau-Mexique. Après avoir obtenu son doctorat, Sher s'est rendue à l'Université Ben Gourion du Néguev, où elle a été soutenue par une bourse du Programme Fulbright[1]. À son retour aux États-Unis, Sher a rejoint l'Université de Californie à Davis en tant que chercheuse postdoctorale étudiant les graminées invasives[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sher était une étudiante de premier cycle à Earlham College, où elle s'est spécialisée en biologie et en art,  et a d'abord été initiée aux plantes envahissantes, intérêt qu'elle attribue au professeur de biologie Brent Smith. Elle a déménagé à l'Université du Nouveau-Mexique pour des études supérieures, où elle a travaillé sous la supervision de Diane Marshall. Sa recherche doctorale, intitulée « Seedling ecology of competing riparian trees : native cottonwood (Populus deltoides subsp wislizenii) and invasive salt cedar (Tamarix ramosissima) », portait sur l'écologie des arbres riverains concurrents : le peuplier et le cèdre salé envahissant (Tamarix).  Elle a effectué des travaux sur le terrain au Refuge faunique national de Bosque del Apache au Nouveau-Mexique. Après avoir obtenu son doctorat, Sher s'est rendue à l'Université Ben Gourion du Néguev, où elle a été soutenue par une bourse du Programme Fulbright. À son retour aux États-Unis, Sher a rejoint l'Université de Californie à Davis en tant que chercheuse postdoctorale étudiant les graminées invasives. 
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Recherche et carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2003, Sher a déménagé à Denver où elle a été nommée professeur à l'Université de Denver et directrice de la recherche aux jardins botaniques de Denver (en)[4]. 
-Les recherches de Sher portent sur la préservation et la protection et la conservation de l'environnement, l'écologie des plantes envahissantes et les moyens de restaurer les écosystèmes endommagés[1]. Elle a étudié en profondeur le Tamarix, une espèce d'arbre exotique envahissante d'Amérique de l'Ouest[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2003, Sher a déménagé à Denver où elle a été nommée professeur à l'Université de Denver et directrice de la recherche aux jardins botaniques de Denver (en). 
+Les recherches de Sher portent sur la préservation et la protection et la conservation de l'environnement, l'écologie des plantes envahissantes et les moyens de restaurer les écosystèmes endommagés. Elle a étudié en profondeur le Tamarix, une espèce d'arbre exotique envahissante d'Amérique de l'Ouest. 
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Récompenses et honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2020 Prix du chercheur distingué de l'Université de Denver [5]
-2020 Prix de la femme exceptionnelle Robin Morgan [6]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020 Prix du chercheur distingué de l'Université de Denver 
+2020 Prix de la femme exceptionnelle Robin Morgan </t>
         </is>
       </c>
     </row>
@@ -607,12 +625,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Livres
-Manuel C., Jr. Molles et Anna A. Sher, Ecology : concepts and applications, New York, NY, 8, 2019 (ISBN 978-1-259-88005-6, OCLC 1010579815, lire en ligne)
-Richard B. Primack et Anna A. Sher, Introduction to conservation biology, Sunderland, MA, U.S.A., 2016 (ISBN 978-1-60535-473-6, OCLC 938396290, lire en ligne)
-Articles
-(en) Peter Chesson, Renate L E Gebauer, Susan Schwinning, Nancy Huntly, Kerstin Wiegand, Morgan Ernest, Anna Sher, Ariel Novoplansky et Jake F Weltzin, « Resource pulses, species interactions, and diversity maintenance in arid and semi-arid environments », Oecologia, Springer Science+Business Media, vol. 141, no 2,‎ 7 avril 2004, p. 236-253 (ISSN 0029-8549 et 1432-1939, PMID 15069635, DOI 10.1007/S00442-004-1551-1)
-(en) Anna A. Sher, Diane L. Marshall et Steven A. Gilbert, « Competition between Native Populus deltoides and Invasive Tamarix ramosissima and the Implications for Reestablishing Flooding Disturbance », Conservation Biology, États-Unis, Wiley-Blackwell, vol. 14, no 6,‎ 18 décembre 2000 et 7 juillet 2008, p. 1744-1754 (ISSN 0888-8892 et 1523-1739, OCLC 715539913, DOI 10.1111/J.1523-1739.2000.99306.X)</t>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Manuel C., Jr. Molles et Anna A. Sher, Ecology : concepts and applications, New York, NY, 8, 2019 (ISBN 978-1-259-88005-6, OCLC 1010579815, lire en ligne)
+Richard B. Primack et Anna A. Sher, Introduction to conservation biology, Sunderland, MA, U.S.A., 2016 (ISBN 978-1-60535-473-6, OCLC 938396290, lire en ligne)</t>
         </is>
       </c>
     </row>
@@ -637,12 +657,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Publications (sélection)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Peter Chesson, Renate L E Gebauer, Susan Schwinning, Nancy Huntly, Kerstin Wiegand, Morgan Ernest, Anna Sher, Ariel Novoplansky et Jake F Weltzin, « Resource pulses, species interactions, and diversity maintenance in arid and semi-arid environments », Oecologia, Springer Science+Business Media, vol. 141, no 2,‎ 7 avril 2004, p. 236-253 (ISSN 0029-8549 et 1432-1939, PMID 15069635, DOI 10.1007/S00442-004-1551-1)
+(en) Anna A. Sher, Diane L. Marshall et Steven A. Gilbert, « Competition between Native Populus deltoides and Invasive Tamarix ramosissima and the Implications for Reestablishing Flooding Disturbance », Conservation Biology, États-Unis, Wiley-Blackwell, vol. 14, no 6,‎ 18 décembre 2000 et 7 juillet 2008, p. 1744-1754 (ISSN 0888-8892 et 1523-1739, OCLC 715539913, DOI 10.1111/J.1523-1739.2000.99306.X)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anna_Sher</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anna_Sher</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sher est membre de 500 Queer Scientists. Elle a été le premier membre de son département à effectuer son coming-out[7]. Sher et son épouse Fran ont été le premier couple de Denver à s'unir civilement[4]. Ensemble, elles ont un fils[8]. 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sher est membre de 500 Queer Scientists. Elle a été le premier membre de son département à effectuer son coming-out. Sher et son épouse Fran ont été le premier couple de Denver à s'unir civilement. Ensemble, elles ont un fils. 
 </t>
         </is>
       </c>
